--- a/DATA_goal/Junction_Flooding_428.xlsx
+++ b/DATA_goal/Junction_Flooding_428.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44782.46527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.34</v>
+        <v>23.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.37</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.43</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.12</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.47222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.59</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.87</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.35</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.71</v>
+        <v>67.09</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.83</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.18</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.75</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.37</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.47916666666</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>4.99</v>
+        <v>49.9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="Z4" s="4" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.48611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.84</v>
+        <v>38.45</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="X5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_428.xlsx
+++ b/DATA_goal/Junction_Flooding_428.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.46527777778</v>
+        <v>45109.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.32</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.93</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.41</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.08</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.37</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.45</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.02</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.47</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.13</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.89</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.28</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.51</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>164.3</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.24</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.41</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.07</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.3</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.7</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.4</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.38</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.18</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.02</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.47222222222</v>
+        <v>45109.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.16</v>
+        <v>9.454000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.08</v>
+        <v>6.662</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.528</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.59</v>
+        <v>20.843</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.03</v>
+        <v>16.056</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.73</v>
+        <v>7.317</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.87</v>
+        <v>29.07</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.56</v>
+        <v>11.635</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.07</v>
+        <v>4.876</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.32</v>
+        <v>6.977</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.35</v>
+        <v>8.298</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.73</v>
+        <v>8.936999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.57</v>
+        <v>2.417</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.89</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.74</v>
+        <v>10.463</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.54</v>
+        <v>6.744</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.322</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>67.09</v>
+        <v>107.128</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.83</v>
+        <v>21.08</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.51</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>13.716</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.5</v>
+        <v>7.098</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.28</v>
+        <v>1.576</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.18</v>
+        <v>14.478</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.98</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.75</v>
+        <v>5.642</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.42</v>
+        <v>6.645</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.37</v>
+        <v>8.638</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.63</v>
+        <v>26.904</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.37</v>
+        <v>3.714</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.64</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.47916666666</v>
+        <v>45109.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.73</v>
+        <v>6.601</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.23</v>
+        <v>4.716</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.976</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.49</v>
+        <v>14.614</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.83</v>
+        <v>11.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.64</v>
+        <v>5.115</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.86</v>
+        <v>21.867</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.82</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.39</v>
+        <v>3.44</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.36</v>
+        <v>4.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.15</v>
+        <v>5.834</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.47</v>
+        <v>6.302</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.693</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.76</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.19</v>
+        <v>7.34</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.48</v>
+        <v>4.736</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.524</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.9</v>
+        <v>72.792</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.57</v>
+        <v>14.792</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.47</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.76</v>
+        <v>9.632</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.5</v>
+        <v>4.997</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.91</v>
+        <v>1.081</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.53</v>
+        <v>10.532</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.07</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.87</v>
+        <v>3.955</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.38</v>
+        <v>4.646</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.2</v>
+        <v>6.082</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.69</v>
+        <v>20.176</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.82</v>
+        <v>2.592</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.34</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.48611111111</v>
+        <v>45109.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.78</v>
+        <v>11.43</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.61</v>
+        <v>8.42</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.4</v>
+        <v>25.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.29</v>
+        <v>20.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.91</v>
+        <v>8.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.66</v>
+        <v>33.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.65</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.93</v>
+        <v>6.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.69</v>
+        <v>8.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.33</v>
+        <v>10.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.6</v>
+        <v>10.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.97</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.01</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.16</v>
+        <v>12.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.78</v>
+        <v>7.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.45</v>
+        <v>130</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>25.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.78</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.43</v>
+        <v>16.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.82</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.71</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.99</v>
+        <v>16.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.45</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.69</v>
+        <v>7.76</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.39</v>
+        <v>10.53</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.68</v>
+        <v>30.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.46</v>
+        <v>4.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.49304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.04</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_428.xlsx
+++ b/DATA_goal/Junction_Flooding_428.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,29 +443,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45109.50694444445</v>
+        <v>44782.46527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.77</v>
+        <v>14.315</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.425000000000001</v>
+        <v>9.452</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.488</v>
+        <v>3.548</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.776</v>
+        <v>30.929</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.765</v>
+        <v>23.407</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.82</v>
+        <v>11.081</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.191</v>
+        <v>33.367</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.707</v>
+        <v>17.452</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.218</v>
+        <v>7.022</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.112</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.928</v>
+        <v>12.134</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.76</v>
+        <v>12.887</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.255</v>
+        <v>3.618</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.151</v>
+        <v>11.279</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.871</v>
+        <v>15.513</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.122999999999999</v>
+        <v>9.993</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.77</v>
+        <v>3.077</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.592</v>
+        <v>1.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.125</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.067</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>10.411</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.004</v>
+        <v>20.071</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.226000000000001</v>
+        <v>10.298</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.728</v>
+        <v>2.945</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.858</v>
+        <v>17.697</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.276</v>
+        <v>9.196</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.652</v>
+        <v>8.398</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.069000000000001</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.378</v>
+        <v>12.384</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.869</v>
+        <v>3.078</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.432</v>
+        <v>30.175</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.957</v>
+        <v>5.636</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.713</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45109.51388888889</v>
+        <v>44782.47222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.454000000000001</v>
+        <v>6.161</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.662</v>
+        <v>4.078</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.528</v>
+        <v>1.417</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.843</v>
+        <v>13.591</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.056</v>
+        <v>10.031</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.317</v>
+        <v>4.728</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.07</v>
+        <v>20.874</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.635</v>
+        <v>7.562</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.876</v>
+        <v>3.07</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.977</v>
+        <v>4.315</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.298</v>
+        <v>5.349</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.936999999999999</v>
+        <v>5.734</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.417</v>
+        <v>1.575</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.519</v>
+        <v>4.888</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.463</v>
+        <v>6.736</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.744</v>
+        <v>4.545</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.322</v>
+        <v>1.371</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.722</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.128</v>
+        <v>67.09</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.08</v>
+        <v>13.831</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.941</v>
+        <v>4.511</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.716</v>
+        <v>8.797000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.098</v>
+        <v>4.502</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.576</v>
+        <v>1.279</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.478</v>
+        <v>10.178</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.131</v>
+        <v>3.985</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.642</v>
+        <v>3.746</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.645</v>
+        <v>4.425</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.638</v>
+        <v>5.374</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.165</v>
+        <v>1.199</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.904</v>
+        <v>19.626</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.714</v>
+        <v>2.365</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.678000000000001</v>
+        <v>5.641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45109.52083333334</v>
+        <v>44782.47916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.601</v>
+        <v>4.729</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.716</v>
+        <v>3.227</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.976</v>
+        <v>0.912</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.614</v>
+        <v>10.492</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.27</v>
+        <v>7.827</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.115</v>
+        <v>3.635</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.867</v>
+        <v>15.859</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.144</v>
+        <v>5.817</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.44</v>
+        <v>2.393</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.88</v>
+        <v>3.356</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.834</v>
+        <v>4.152</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.302</v>
+        <v>4.47</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.693</v>
+        <v>1.209</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.263</v>
+        <v>3.76</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.34</v>
+        <v>5.188</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.736</v>
+        <v>3.482</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.902</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.524</v>
+        <v>0.469</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.792</v>
+        <v>49.897</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.792</v>
+        <v>10.574</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.858</v>
+        <v>3.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.632</v>
+        <v>6.76</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.997</v>
+        <v>3.505</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.081</v>
+        <v>0.914</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.532</v>
+        <v>7.532</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.291</v>
+        <v>3.065</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.955</v>
+        <v>2.874</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.646</v>
+        <v>3.378</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.082</v>
+        <v>4.201</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.733</v>
+        <v>0.747</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>20.176</v>
+        <v>14.689</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.592</v>
+        <v>1.821</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.075</v>
+        <v>4.339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45109.52777777778</v>
+        <v>44782.48611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.43</v>
+        <v>3.776</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.42</v>
+        <v>2.615</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.674</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.08</v>
+        <v>8.401999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.11</v>
+        <v>6.294</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.93</v>
+        <v>2.905</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>33.63</v>
+        <v>12.657</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.96</v>
+        <v>4.654</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.1</v>
+        <v>1.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.92</v>
+        <v>2.694</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.05</v>
+        <v>3.333</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.74</v>
+        <v>3.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.9</v>
+        <v>0.968</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.02</v>
+        <v>3.008</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.74</v>
+        <v>4.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.77</v>
+        <v>2.781</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.675</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.344</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130</v>
+        <v>38.448</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.17</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.33</v>
+        <v>2.776</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.75</v>
+        <v>5.428</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>2.822</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.711</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.51</v>
+        <v>5.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.36</v>
+        <v>2.452</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.6</v>
+        <v>2.296</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.76</v>
+        <v>2.694</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.53</v>
+        <v>3.388</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>11.684</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.471</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.49304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>30.53</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>10.41</v>
+      <c r="E6" s="4" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_428.xlsx
+++ b/DATA_goal/Junction_Flooding_428.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,29 +443,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.46527777778</v>
+        <v>45109.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.315</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.452</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.548</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.929</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.407</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.081</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.367</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.452</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.022</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.47</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.134</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.887</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.618</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.279</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.513</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.993</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.077</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.709</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>164.3</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.24</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.411</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.071</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.298</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.945</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.697</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.196</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.398</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.994999999999999</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.384</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.078</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.175</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.636</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.015</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.47222222222</v>
+        <v>45109.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.161</v>
+        <v>9.454000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.078</v>
+        <v>6.662</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.417</v>
+        <v>1.528</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.591</v>
+        <v>20.843</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.031</v>
+        <v>16.056</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.728</v>
+        <v>7.317</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.874</v>
+        <v>29.07</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.562</v>
+        <v>11.635</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.07</v>
+        <v>4.876</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.315</v>
+        <v>6.977</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.349</v>
+        <v>8.298</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.734</v>
+        <v>8.936999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.575</v>
+        <v>2.417</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.888</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.736</v>
+        <v>10.463</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.545</v>
+        <v>6.744</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.371</v>
+        <v>1.322</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.722</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>67.09</v>
+        <v>107.128</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.831</v>
+        <v>21.08</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.511</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.797000000000001</v>
+        <v>13.716</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.502</v>
+        <v>7.098</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.279</v>
+        <v>1.576</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.178</v>
+        <v>14.478</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.985</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.746</v>
+        <v>5.642</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.425</v>
+        <v>6.645</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.374</v>
+        <v>8.638</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.199</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.626</v>
+        <v>26.904</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.365</v>
+        <v>3.714</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.641</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.47916666666</v>
+        <v>45109.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.729</v>
+        <v>6.601</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.227</v>
+        <v>4.716</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.912</v>
+        <v>0.976</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.492</v>
+        <v>14.614</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.827</v>
+        <v>11.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.635</v>
+        <v>5.115</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.859</v>
+        <v>21.867</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.817</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.393</v>
+        <v>3.44</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.356</v>
+        <v>4.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.152</v>
+        <v>5.834</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.47</v>
+        <v>6.302</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.209</v>
+        <v>1.693</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.76</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.188</v>
+        <v>7.34</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.482</v>
+        <v>4.736</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.902</v>
+        <v>0.88</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.469</v>
+        <v>0.524</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.897</v>
+        <v>72.792</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.574</v>
+        <v>14.792</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.47</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.76</v>
+        <v>9.632</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.505</v>
+        <v>4.997</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.914</v>
+        <v>1.081</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.532</v>
+        <v>10.532</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.065</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.874</v>
+        <v>3.955</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.378</v>
+        <v>4.646</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.201</v>
+        <v>6.082</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.747</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.689</v>
+        <v>20.176</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.821</v>
+        <v>2.592</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.339</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.48611111111</v>
+        <v>45109.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.776</v>
+        <v>11.43</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.615</v>
+        <v>8.42</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.674</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.401999999999999</v>
+        <v>25.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.294</v>
+        <v>20.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.905</v>
+        <v>8.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.657</v>
+        <v>33.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.654</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.93</v>
+        <v>6.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.694</v>
+        <v>8.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.333</v>
+        <v>10.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.6</v>
+        <v>10.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.968</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.008</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.16</v>
+        <v>12.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.781</v>
+        <v>7.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.675</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.344</v>
+        <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.448</v>
+        <v>130</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>25.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.776</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.428</v>
+        <v>16.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.822</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.711</v>
+        <v>1.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.99</v>
+        <v>16.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.452</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.296</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.694</v>
+        <v>7.76</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.388</v>
+        <v>10.53</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.684</v>
+        <v>30.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.456</v>
+        <v>4.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.471</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.49304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.04</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>
